--- a/file/2007年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2007年德阳市国民经济和社会发展统计公报.xlsx
@@ -7,14 +7,252 @@
   </bookViews>
   <sheets>
     <sheet name="综合" r:id="rId3" sheetId="1"/>
+    <sheet name="农业" r:id="rId4" sheetId="2"/>
+    <sheet name="工业" r:id="rId5" sheetId="3"/>
+    <sheet name="投资" r:id="rId6" sheetId="4"/>
+    <sheet name="贸易" r:id="rId7" sheetId="5"/>
+    <sheet name="交通" r:id="rId8" sheetId="6"/>
+    <sheet name="金融" r:id="rId9" sheetId="7"/>
+    <sheet name="教育" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>233</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>同比</t>
+  </si>
+  <si>
+    <t>年末总户数</t>
+  </si>
+  <si>
+    <t>万户</t>
+  </si>
+  <si>
+    <t>户籍总人口</t>
+  </si>
+  <si>
+    <t>万人</t>
+  </si>
+  <si>
+    <t>城镇人口</t>
+  </si>
+  <si>
+    <t>乡村人口</t>
+  </si>
+  <si>
+    <t>全年出生人口</t>
+  </si>
+  <si>
+    <t>死亡人口</t>
+  </si>
+  <si>
+    <t>年末常住人口</t>
+  </si>
+  <si>
+    <t>城镇化率</t>
+  </si>
+  <si>
+    <t>国民经济</t>
+  </si>
+  <si>
+    <t>全年地区生产总值</t>
+  </si>
+  <si>
+    <t>亿元</t>
+  </si>
+  <si>
+    <t>经济总量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人均GDP </t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>第一产业增加值</t>
+  </si>
+  <si>
+    <t>第二产业增加值</t>
+  </si>
+  <si>
+    <t>第三产业增加值</t>
+  </si>
+  <si>
+    <t>全年民营经济</t>
+  </si>
+  <si>
+    <t>民营经济</t>
+  </si>
+  <si>
+    <t>全年居民消费价格</t>
+  </si>
+  <si>
+    <t>工业品出厂价格</t>
+  </si>
+  <si>
+    <t>工业品购进价格</t>
+  </si>
+  <si>
+    <t>一般公共预算</t>
+  </si>
+  <si>
+    <t>播种面积</t>
+  </si>
+  <si>
+    <t>全年农作物播种面积</t>
+  </si>
+  <si>
+    <t>万公顷</t>
+  </si>
+  <si>
+    <t>粮食作物播种面积</t>
+  </si>
+  <si>
+    <t>油料作物播种面积</t>
+  </si>
+  <si>
+    <t>蔬菜及食用菌播种面积</t>
+  </si>
+  <si>
+    <t>全年粮食总产量</t>
+  </si>
+  <si>
+    <t>油料总产量</t>
+  </si>
+  <si>
+    <t>蔬菜总产量</t>
+  </si>
+  <si>
+    <t>全年肉类总产量</t>
+  </si>
+  <si>
+    <t>全部工业增加值</t>
+  </si>
+  <si>
+    <t>工业企业</t>
+  </si>
+  <si>
+    <t>主营业务收入</t>
+  </si>
+  <si>
+    <t>实现利税</t>
+  </si>
+  <si>
+    <t>利润总额</t>
+  </si>
+  <si>
+    <t>固定资产投资</t>
+  </si>
+  <si>
+    <t>第一产业投资</t>
+  </si>
+  <si>
+    <t>第二产业投资</t>
+  </si>
+  <si>
+    <t>第三产业投资</t>
+  </si>
+  <si>
+    <t>社会消费品零售总额</t>
+  </si>
+  <si>
+    <t>城镇消费品零售额</t>
+  </si>
+  <si>
+    <t>乡村消费品零售额</t>
+  </si>
+  <si>
+    <t>进出口总额</t>
+  </si>
+  <si>
+    <t>出口额</t>
+  </si>
+  <si>
+    <t>进口额</t>
+  </si>
+  <si>
+    <t>公路总里程</t>
+  </si>
+  <si>
+    <t>铁路运营里程</t>
+  </si>
+  <si>
+    <t>公路货运量</t>
+  </si>
+  <si>
+    <t>公路客运量</t>
+  </si>
+  <si>
+    <t>铁路客运量</t>
+  </si>
+  <si>
+    <t>铁路货运量</t>
+  </si>
+  <si>
+    <t>电信业务总量</t>
+  </si>
+  <si>
+    <t>固定电话用户</t>
+  </si>
+  <si>
+    <t>移动电话用户</t>
+  </si>
+  <si>
+    <t>金融机构本外币存款余额</t>
+  </si>
+  <si>
+    <t>金融机构本外币贷款余额</t>
+  </si>
+  <si>
+    <t>保费收入</t>
+  </si>
+  <si>
+    <t>各项赔款</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>在校学生</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>招生人数</t>
+  </si>
+  <si>
+    <t>在校</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>高中</t>
+  </si>
+  <si>
+    <t>中等职业学校</t>
+  </si>
+  <si>
+    <t>普通高校</t>
   </si>
 </sst>
 </file>
@@ -59,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,6 +307,512 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/file/2007年德阳市国民经济和社会发展统计公报.xlsx
+++ b/file/2007年德阳市国民经济和社会发展统计公报.xlsx
@@ -90,7 +90,7 @@
     <t>第三产业增加值</t>
   </si>
   <si>
-    <t>全年民营经济</t>
+    <t>全年民营经济增加值</t>
   </si>
   <si>
     <t>民营经济</t>
@@ -177,10 +177,10 @@
     <t>进出口总额</t>
   </si>
   <si>
+    <t>进口额</t>
+  </si>
+  <si>
     <t>出口额</t>
-  </si>
-  <si>
-    <t>进口额</t>
   </si>
   <si>
     <t>公路总里程</t>
